--- a/Jogos_do_Dia/2023-09-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI59"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,82 +470,82 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_H</t>
+          <t>Odd_H_FT</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_D</t>
+          <t>Odd_D_FT</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_A</t>
+          <t>Odd_A_FT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Over05</t>
+          <t>Odd_Over05_FT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Under05</t>
+          <t>Odd_Under05_FT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Over15</t>
+          <t>Odd_Over15_FT</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Under15</t>
+          <t>Odd_Under15_FT</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Over25</t>
+          <t>Odd_Over25_FT</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Under25</t>
+          <t>Odd_Under25_FT</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>HT_Odds_Over05</t>
+          <t>Odd_Over05_HT</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>HT_Odds_Under05</t>
+          <t>Odd_Under05_HT</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Odds_BTTS_Yes</t>
+          <t>Odd_BTTS_Yes</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Odds_BTTS_No</t>
+          <t>Odd_BTTS_No</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Odds_DuplaChance_1X</t>
+          <t>Odd_DC_1X</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Odds_DuplaChance_12</t>
+          <t>Odd_DC_12</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Odds_DuplaChance_X2</t>
+          <t>Odd_DC_X2</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -571,46 +571,6 @@
       <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>XG_Total_Pre</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_H</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_D</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_A</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over75</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over85</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over95</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over105</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over115</t>
         </is>
       </c>
     </row>
@@ -642,13 +602,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -663,10 +623,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O2" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -703,30 +663,6 @@
       </c>
       <c r="AA2" t="n">
         <v>2.7</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -819,35 +755,11 @@
       <c r="AA3" t="n">
         <v>2.3</v>
       </c>
-      <c r="AB3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3.35</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -855,114 +767,90 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K4" t="n">
         <v>11</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hebar 1918</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Botev Vratsa</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.1</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="M4" t="n">
-        <v>2.61</v>
+        <v>4.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.35</v>
+        <v>1.54</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>2.63</v>
       </c>
       <c r="T4" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="U4" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.53</v>
+        <v>3.11</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.08</v>
+        <v>2.47</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -970,114 +858,90 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rogaška</t>
+          <t>Hebar 1918</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.72</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="U5" t="n">
         <v>1.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>0.67</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1089,110 +953,86 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Rogaška</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.57</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.47</v>
-      </c>
       <c r="U6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.3</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W6" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AA6" t="n">
         <v>3.13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1204,110 +1044,86 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.81</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>5.71</v>
+        <v>8.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>2.26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="U7" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1315,114 +1131,90 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.54</v>
+        <v>2.85</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
-        <v>9.550000000000001</v>
+        <v>5.71</v>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>4.13</v>
+        <v>2.38</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>2.27</v>
       </c>
       <c r="R8" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="U8" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1430,114 +1222,90 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
-        <v>2.9</v>
+        <v>4.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.22</v>
+        <v>1.66</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.42</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>0.77</v>
       </c>
       <c r="X9" t="n">
-        <v>0.33</v>
+        <v>1.46</v>
       </c>
       <c r="Y9" t="n">
         <v>1.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1549,104 +1317,80 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>HJK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="U10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.97</v>
+        <v>1.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>3.65</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="11">
@@ -1668,100 +1412,76 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="12">
@@ -1792,13 +1512,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1813,10 +1533,10 @@
         <v>3.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="P12" t="n">
         <v>1.38</v>
@@ -1853,36 +1573,12 @@
       </c>
       <c r="AA12" t="n">
         <v>2.39</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1894,110 +1590,86 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HJK</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="I13" t="n">
-        <v>4.43</v>
+        <v>3.47</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="N13" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="O13" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.49</v>
+        <v>2.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="U13" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
         <v>2.25</v>
       </c>
       <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>1.38</v>
-      </c>
       <c r="Z13" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>3.34</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,110 +1681,86 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2</v>
-      </c>
       <c r="X14" t="n">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2120,114 +1768,90 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Aluminij</t>
+          <t>Lamia</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.18</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>5.85</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
-        <v>4.65</v>
+        <v>2.9</v>
       </c>
       <c r="N15" t="n">
-        <v>1.55</v>
+        <v>2.26</v>
       </c>
       <c r="O15" t="n">
-        <v>2.3</v>
+        <v>1.58</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.06</v>
+        <v>1.42</v>
       </c>
       <c r="U15" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="V15" t="n">
-        <v>3.13</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2235,108 +1859,84 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Aluminij</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.62</v>
+        <v>1.18</v>
       </c>
       <c r="H16" t="n">
-        <v>3.37</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.83</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="M16" t="n">
-        <v>3.32</v>
+        <v>4.65</v>
       </c>
       <c r="N16" t="n">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="O16" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="S16" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.16</v>
+        <v>3.13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="17">
@@ -2358,22 +1958,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2382,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2400,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2427,30 +2027,6 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2544,35 +2120,11 @@
       <c r="AA18" t="n">
         <v>2.94</v>
       </c>
-      <c r="AB18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>2.7</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Norway First Division</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2584,104 +2136,80 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hødd</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sandnes Ulf</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="O19" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="P19" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2712,13 +2240,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
         <v>1.03</v>
@@ -2736,7 +2264,7 @@
         <v>1.65</v>
       </c>
       <c r="O20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P20" t="n">
         <v>1.3</v>
@@ -2773,36 +2301,12 @@
       </c>
       <c r="AA20" t="n">
         <v>2.44</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Norway First Division</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,110 +2318,86 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Hødd</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora</t>
+          <t>Sandnes Ulf</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>11.75</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.23</v>
+        <v>2.85</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X21" t="n">
         <v>1.36</v>
       </c>
-      <c r="O21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" t="n">
-        <v>2.23</v>
-      </c>
       <c r="Y21" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2925,108 +2405,84 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Tallinna FC Flora</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>1.22</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="O22" t="n">
-        <v>1.87</v>
+        <v>2.65</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="S22" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T22" t="n">
-        <v>1.35</v>
+        <v>3.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5</v>
+        <v>2.23</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.87</v>
+        <v>1.44</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.97</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>2.8</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="23">
@@ -3119,30 +2575,6 @@
       <c r="AA23" t="n">
         <v>2.09</v>
       </c>
-      <c r="AB23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>2.8</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3163,106 +2595,82 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>1.82</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.7</v>
       </c>
-      <c r="O24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S24" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T24" t="n">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="U24" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.69</v>
+        <v>0.97</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>3.6</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3270,114 +2678,90 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q25" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PSV</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Go Ahead Eagles</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-      <c r="I25" t="n">
-        <v>26</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K25" t="n">
-        <v>29</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M25" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
         <v>1</v>
       </c>
-      <c r="U25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Y25" t="n">
-        <v>2.39</v>
+        <v>0.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.09</v>
+        <v>1.69</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3385,114 +2769,90 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.05</v>
       </c>
-      <c r="K26" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.32</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.36</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.65</v>
+        <v>2.39</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,104 +2864,80 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Getafe CF</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.78</v>
+        <v>3.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N27" t="n">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="O27" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="S27" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.11</v>
+        <v>1.82</v>
       </c>
       <c r="U27" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="V27" t="n">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Y27" t="n">
         <v>1.66</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.12</v>
+        <v>1.62</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="28">
@@ -3694,35 +3030,11 @@
       <c r="AA28" t="n">
         <v>2.92</v>
       </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,104 +3046,80 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Öster</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Getafe CF</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.5</v>
       </c>
-      <c r="H29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K29" t="n">
-        <v>17</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q29" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="S29" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="T29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z29" t="n">
         <v>1.12</v>
       </c>
-      <c r="U29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AA29" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="30">
@@ -3853,106 +3141,82 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>11.75</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="N30" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O30" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X30" t="n">
-        <v>1.92</v>
+        <v>0.55</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3964,110 +3228,86 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Öster</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>1.03</v>
       </c>
       <c r="K31" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="L31" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M31" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
         <v>1.57</v>
       </c>
       <c r="O31" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z31" t="n">
         <v>1.29</v>
       </c>
-      <c r="Q31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.03</v>
-      </c>
       <c r="AA31" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4079,110 +3319,86 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.74</v>
+        <v>1.42</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.37</v>
+        <v>1.03</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Germany 3. Liga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4194,110 +3410,86 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Borussia Dortmund II</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MSV Duisburg</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="H33" t="n">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>3.13</v>
+        <v>2.45</v>
       </c>
       <c r="J33" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L33" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="M33" t="n">
-        <v>4.5</v>
+        <v>5.61</v>
       </c>
       <c r="N33" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="O33" t="n">
-        <v>2.22</v>
+        <v>2.47</v>
       </c>
       <c r="P33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="S33" t="n">
-        <v>2.46</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="U33" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="V33" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4309,104 +3501,80 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.72</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="J34" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K34" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="n">
-        <v>5.61</v>
+        <v>3.64</v>
       </c>
       <c r="N34" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="O34" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.75</v>
+        <v>2.97</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="S34" t="n">
-        <v>2.75</v>
+        <v>1.97</v>
       </c>
       <c r="T34" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="V34" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="W34" t="n">
         <v>3</v>
       </c>
       <c r="X34" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.73</v>
+        <v>2.74</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.1</v>
+        <v>2.37</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>2.7</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="35">
@@ -4499,30 +3667,6 @@
       <c r="AA35" t="n">
         <v>3.47</v>
       </c>
-      <c r="AB35" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>3.65</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4614,30 +3758,6 @@
       <c r="AA36" t="n">
         <v>4.42</v>
       </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4667,13 +3787,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H37" t="n">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="I37" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
@@ -4688,10 +3808,10 @@
         <v>4.2</v>
       </c>
       <c r="N37" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="O37" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -4728,30 +3848,6 @@
       </c>
       <c r="AA37" t="n">
         <v>3.43</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4782,13 +3878,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="H38" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.02</v>
@@ -4803,10 +3899,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O38" t="n">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="P38" t="n">
         <v>1.25</v>
@@ -4843,30 +3939,6 @@
       </c>
       <c r="AA38" t="n">
         <v>2.57</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4897,13 +3969,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.97</v>
+        <v>2.45</v>
       </c>
       <c r="H39" t="n">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="J39" t="n">
         <v>1.06</v>
@@ -4918,10 +3990,10 @@
         <v>3.55</v>
       </c>
       <c r="N39" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -4958,30 +4030,6 @@
       </c>
       <c r="AA39" t="n">
         <v>3.16</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5012,13 +4060,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H40" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="J40" t="n">
         <v>1.01</v>
@@ -5033,10 +4081,10 @@
         <v>5.87</v>
       </c>
       <c r="N40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O40" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="P40" t="n">
         <v>1.24</v>
@@ -5073,30 +4121,6 @@
       </c>
       <c r="AA40" t="n">
         <v>3.09</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>2.25</v>
       </c>
     </row>
     <row r="41">
@@ -5189,35 +4213,11 @@
       <c r="AA41" t="n">
         <v>2.96</v>
       </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Slovakia Super Liga</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -5229,104 +4229,80 @@
         </is>
       </c>
       <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Lausanne Sport</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W42" t="n">
         <v>3</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Spartak Trnava</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>FK Košice</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1</v>
       </c>
       <c r="X42" t="n">
         <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AA42" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="43">
@@ -5348,106 +4324,82 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.83</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
         <v>1.01</v>
       </c>
       <c r="K43" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="M43" t="n">
-        <v>4.05</v>
+        <v>4.9</v>
       </c>
       <c r="N43" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="O43" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="P43" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="S43" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="T43" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="U43" t="n">
         <v>1.2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="W43" t="n">
         <v>3</v>
       </c>
       <c r="X43" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AA43" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5459,104 +4411,80 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>5.2</v>
+        <v>2.55</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="K44" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
-        <v>3.72</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.7</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S44" t="n">
         <v>1.95</v>
       </c>
-      <c r="P44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W44" t="n">
         <v>2</v>
       </c>
-      <c r="T44" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0.67</v>
-      </c>
       <c r="X44" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="AA44" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45">
@@ -5578,100 +4506,76 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="L45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="n">
         <v>1.12</v>
       </c>
-      <c r="M45" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="V45" t="n">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="W45" t="n">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="X45" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.93</v>
+        <v>1.51</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="46">
@@ -5702,13 +4606,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
@@ -5723,10 +4627,10 @@
         <v>2.95</v>
       </c>
       <c r="N46" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="P46" t="n">
         <v>1.46</v>
@@ -5763,30 +4667,6 @@
       </c>
       <c r="AA46" t="n">
         <v>2.7</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>4.5</v>
       </c>
     </row>
     <row r="47">
@@ -5808,22 +4688,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="J47" t="n">
         <v>1.07</v>
@@ -5835,34 +4715,34 @@
         <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N47" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="P47" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q47" t="n">
         <v>2.55</v>
       </c>
       <c r="R47" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S47" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T47" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="U47" t="n">
         <v>1.28</v>
       </c>
       <c r="V47" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="W47" t="n">
         <v>2</v>
@@ -5871,43 +4751,19 @@
         <v>1.67</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="AA47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>2.85</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Slovakia Super Liga</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -5919,104 +4775,80 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Spartak Trnava</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>FK Košice</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K48" t="n">
         <v>8.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="N48" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="P48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z48" t="n">
         <v>1.46</v>
       </c>
-      <c r="Q48" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W48" t="n">
-        <v>2</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0.99</v>
-      </c>
       <c r="AA48" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="49">
@@ -6050,49 +4882,49 @@
         <v>1.29</v>
       </c>
       <c r="H49" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O49" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="W49" t="n">
         <v>2.5</v>
@@ -6108,30 +4940,6 @@
       </c>
       <c r="AA49" t="n">
         <v>2</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -6224,30 +5032,6 @@
       <c r="AA50" t="n">
         <v>3.67</v>
       </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6339,30 +5123,6 @@
       <c r="AA51" t="n">
         <v>3.04</v>
       </c>
-      <c r="AB51" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6454,30 +5214,6 @@
       <c r="AA52" t="n">
         <v>2.47</v>
       </c>
-      <c r="AB52" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>4.8</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6569,30 +5305,6 @@
       <c r="AA53" t="n">
         <v>3.3</v>
       </c>
-      <c r="AB53" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>2.95</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6622,13 +5334,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I54" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -6683,30 +5395,6 @@
       </c>
       <c r="AA54" t="n">
         <v>4.31</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>2.4</v>
       </c>
     </row>
     <row r="55">
@@ -6728,40 +5416,40 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Valencia CF</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I55" t="n">
         <v>3</v>
       </c>
-      <c r="I55" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J55" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.44</v>
       </c>
       <c r="M55" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="N55" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -6770,58 +5458,34 @@
         <v>2.5</v>
       </c>
       <c r="R55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X55" t="n">
         <v>2</v>
       </c>
-      <c r="S55" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W55" t="n">
-        <v>2</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Y55" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.09</v>
+        <v>1.51</v>
       </c>
       <c r="AA55" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="56">
@@ -6843,40 +5507,40 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Valencia CF</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K56" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
         <v>1.44</v>
       </c>
       <c r="M56" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="N56" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O56" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P56" t="n">
         <v>1.5</v>
@@ -6885,58 +5549,34 @@
         <v>2.5</v>
       </c>
       <c r="R56" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="U56" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="V56" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="W56" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.51</v>
+        <v>1.09</v>
       </c>
       <c r="AA56" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="57">
@@ -7029,35 +5669,11 @@
       <c r="AA57" t="n">
         <v>3.19</v>
       </c>
-      <c r="AB57" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>2.35</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>USA MLS</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -7069,110 +5685,86 @@
         </is>
       </c>
       <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Philadelphia Union</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>FC Dallas</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.03</v>
-      </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O58" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="P58" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>2.21</v>
+        <v>2.44</v>
       </c>
       <c r="X58" t="n">
-        <v>0.93</v>
+        <v>1.31</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="AA58" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>USA MLS</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -7184,104 +5776,171 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="H59" t="n">
-        <v>3.47</v>
+        <v>4.66</v>
       </c>
       <c r="I59" t="n">
-        <v>3.5</v>
+        <v>7.15</v>
       </c>
       <c r="J59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K59" t="n">
+        <v>11</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X59" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K60" t="n">
+        <v>12</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -589,80 +589,80 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tokushima Vortis</t>
+          <t>ThespaKusatsu Gunma</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Roasso Kumamoto</t>
+          <t>Zweigen Kanazawa</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="J2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.05</v>
       </c>
-      <c r="K2" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.16</v>
-      </c>
       <c r="Z2" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
@@ -680,80 +680,80 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ThespaKusatsu Gunma</t>
+          <t>Tokushima Vortis</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Zweigen Kanazawa</t>
+          <t>Roasso Kumamoto</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.84</v>
       </c>
       <c r="O3" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="P3" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="U3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="W3" t="n">
-        <v>1.82</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
-        <v>0.61</v>
+        <v>1.39</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
@@ -832,10 +832,10 @@
         <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="Y4" t="n">
         <v>3.11</v>
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>4.88</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -896,10 +896,10 @@
         <v>2.61</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.12</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
@@ -987,10 +987,10 @@
         <v>3.3</v>
       </c>
       <c r="N6" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="P6" t="n">
         <v>1.39</v>
@@ -1057,13 +1057,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="J7" t="n">
         <v>1.08</v>
@@ -1078,10 +1078,10 @@
         <v>2.95</v>
       </c>
       <c r="N7" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="P7" t="n">
         <v>1.5</v>
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.7</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I8" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>1.14</v>
@@ -1163,13 +1163,13 @@
         <v>5.71</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M8" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1181,10 +1181,10 @@
         <v>2.27</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
         <v>1.41</v>
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1260,10 +1260,10 @@
         <v>4.13</v>
       </c>
       <c r="N9" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="O9" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1.29</v>
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.18</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.43</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1351,10 +1351,10 @@
         <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1396,7 +1396,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1408,86 +1408,86 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.41</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="I11" t="n">
-        <v>2.79</v>
+        <v>4.47</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="O11" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="P11" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.7</v>
+        <v>2.91</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S11" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="T11" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="U11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.99</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>0.75</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1499,86 +1499,86 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.12</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>2.83</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="N12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W12" t="n">
         <v>2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>0.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1590,86 +1590,86 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>4.07</v>
       </c>
       <c r="H13" t="n">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.47</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="N13" t="n">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="O13" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="P13" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.36</v>
+        <v>1.97</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.86</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1681,44 +1681,44 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Lamia</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N14" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="O14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -1727,40 +1727,40 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="U14" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.16</v>
+        <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.97</v>
+        <v>1.19</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.41</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -1772,80 +1772,80 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="N15" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Z15" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="16">
@@ -1879,10 +1879,10 @@
         <v>1.18</v>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -1897,10 +1897,10 @@
         <v>4.65</v>
       </c>
       <c r="N16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="O16" t="n">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="P16" t="n">
         <v>1.24</v>
@@ -2003,7 +2003,7 @@
         <v>1.9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
         <v>1.78</v>
@@ -2033,7 +2033,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Slovakia Super Liga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2045,86 +2045,86 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>2.03</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
       <c r="U18" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="W18" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Slovakia Super Liga</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2136,80 +2136,80 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.9</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="S19" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="20">
@@ -2231,82 +2231,82 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vaprus</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Tallinna FC Flora</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>1.19</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>9.15</v>
+        <v>23</v>
       </c>
       <c r="L20" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="M20" t="n">
-        <v>4.18</v>
+        <v>5.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="O20" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.29</v>
+        <v>1.09</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>1.14</v>
+        <v>2.23</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.44</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Norway First Division</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2318,86 +2318,86 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hødd</t>
+          <t>Vaprus</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sandnes Ulf</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9.15</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>4.18</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O21" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="P21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="T21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U21" t="n">
         <v>1.29</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.49</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Norway First Division</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2409,80 +2409,80 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Hødd</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora</t>
+          <t>Sandnes Ulf</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.5</v>
+        <v>2.17</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>3.57</v>
       </c>
       <c r="I22" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.22</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K22" t="n">
-        <v>23</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.12</v>
-      </c>
       <c r="M22" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.44</v>
       </c>
-      <c r="O22" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="V22" t="n">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="X22" t="n">
-        <v>2.23</v>
+        <v>1.36</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="AA22" t="n">
-        <v>3.44</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="23">
@@ -2513,13 +2513,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
@@ -2534,10 +2534,10 @@
         <v>3.98</v>
       </c>
       <c r="N23" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="O23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -2604,13 +2604,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
         <v>1.05</v>
@@ -2625,10 +2625,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="O24" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -2695,13 +2695,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="J25" t="n">
         <v>1.04</v>
@@ -2716,10 +2716,10 @@
         <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O25" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="P25" t="n">
         <v>1.36</v>
@@ -2786,13 +2786,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
         <v>1.02</v>
@@ -2807,10 +2807,10 @@
         <v>6.83</v>
       </c>
       <c r="N26" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="O26" t="n">
-        <v>2.75</v>
+        <v>3.33</v>
       </c>
       <c r="P26" t="n">
         <v>1.2</v>
@@ -2852,7 +2852,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -2864,80 +2864,80 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>Getafe CF</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>1.67</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N27" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="P27" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="S27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W27" t="n">
         <v>2</v>
       </c>
-      <c r="T27" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X27" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>1.66</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.62</v>
+        <v>1.12</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="28">
@@ -2959,82 +2959,82 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Skövde AIK</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>3.67</v>
       </c>
       <c r="H28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M28" t="n">
         <v>3.5</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O28" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="P28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="S28" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="X28" t="n">
-        <v>1.18</v>
+        <v>1.92</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.92</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3046,86 +3046,86 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Skövde AIK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Getafe CF</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.78</v>
+        <v>2.84</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>2.43</v>
       </c>
       <c r="J29" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="N29" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R29" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.11</v>
+        <v>1.52</v>
       </c>
       <c r="U29" t="n">
         <v>1.22</v>
       </c>
       <c r="V29" t="n">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -3137,80 +3137,80 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>1.78</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K30" t="n">
-        <v>11.75</v>
+        <v>9.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="n">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="N30" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O30" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="R30" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S30" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T30" t="n">
-        <v>1.35</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="V30" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
-        <v>1.36</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.65</v>
+        <v>2.74</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.5</v>
+        <v>2.37</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.15</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="31">
@@ -3232,82 +3232,82 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Öster</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z31" t="n">
         <v>1.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K31" t="n">
-        <v>17</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AA31" t="n">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -3319,86 +3319,86 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Öster</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>4.32</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>6.15</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="L32" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M32" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O32" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="P32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z32" t="n">
         <v>1.29</v>
       </c>
-      <c r="Q32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1</v>
-      </c>
-      <c r="X32" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1.03</v>
-      </c>
       <c r="AA32" t="n">
-        <v>2.45</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -3410,86 +3410,86 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.65</v>
+        <v>1.91</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
       </c>
       <c r="I33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AA33" t="n">
         <v>2.45</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K33" t="n">
-        <v>21</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W33" t="n">
-        <v>3</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2.83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -3501,86 +3501,86 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>UD Las Palmas</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.2</v>
+        <v>1.29</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>1.78</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="L34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.22</v>
       </c>
-      <c r="M34" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Q34" t="n">
-        <v>2.97</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="S34" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="T34" t="n">
-        <v>2.02</v>
+        <v>1.02</v>
       </c>
       <c r="U34" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="V34" t="n">
-        <v>1.17</v>
+        <v>3.75</v>
       </c>
       <c r="W34" t="n">
         <v>3</v>
       </c>
       <c r="X34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.74</v>
+        <v>2.43</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.37</v>
+        <v>1.04</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.11</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -3592,86 +3592,86 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UD Las Palmas</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.26</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>2.05</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M35" t="n">
-        <v>5.25</v>
+        <v>5.61</v>
       </c>
       <c r="N35" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="S35" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.02</v>
+        <v>1.57</v>
       </c>
       <c r="U35" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="V35" t="n">
-        <v>3.75</v>
+        <v>1.42</v>
       </c>
       <c r="W35" t="n">
         <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.43</v>
+        <v>1.73</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.47</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -3683,23 +3683,23 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H36" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="I36" t="n">
         <v>8</v>
@@ -3708,55 +3708,55 @@
         <v>1.02</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="n">
         <v>4.2</v>
       </c>
       <c r="N36" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="P36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T36" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="U36" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="V36" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="W36" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="AA36" t="n">
-        <v>4.42</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="37">
@@ -3778,82 +3778,82 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="H37" t="n">
-        <v>4.45</v>
+        <v>6.5</v>
       </c>
       <c r="I37" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="M37" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="O37" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="P37" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="V37" t="n">
-        <v>2.95</v>
+        <v>4.75</v>
       </c>
       <c r="W37" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="X37" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.18</v>
+        <v>0.79</v>
       </c>
       <c r="AA37" t="n">
-        <v>3.43</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -3865,80 +3865,80 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="H38" t="n">
-        <v>7.3</v>
+        <v>4.38</v>
       </c>
       <c r="I38" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="J38" t="n">
         <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N38" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="O38" t="n">
-        <v>2.51</v>
+        <v>2.22</v>
       </c>
       <c r="P38" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="V38" t="n">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="W38" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="X38" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.78</v>
+        <v>2.69</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.79</v>
+        <v>1.73</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.57</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="39">
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I39" t="n">
         <v>2.6</v>
@@ -3990,10 +3990,10 @@
         <v>3.55</v>
       </c>
       <c r="N39" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O39" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -4060,13 +4060,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
-        <v>4.65</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
         <v>1.01</v>
@@ -4081,10 +4081,10 @@
         <v>5.87</v>
       </c>
       <c r="N40" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O40" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="P40" t="n">
         <v>1.24</v>
@@ -4151,13 +4151,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J41" t="n">
         <v>1.01</v>
@@ -4172,10 +4172,10 @@
         <v>3.56</v>
       </c>
       <c r="N41" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O41" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -4233,76 +4233,76 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="J42" t="n">
         <v>1.01</v>
       </c>
       <c r="K42" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="M42" t="n">
-        <v>4.05</v>
+        <v>4.9</v>
       </c>
       <c r="N42" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="O42" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="P42" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="S42" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="T42" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="U42" t="n">
         <v>1.2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="W42" t="n">
         <v>3</v>
       </c>
       <c r="X42" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AA42" t="n">
-        <v>3.01</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="43">
@@ -4324,76 +4324,76 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lausanne Sport</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="J43" t="n">
         <v>1.01</v>
       </c>
       <c r="K43" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="L43" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="M43" t="n">
-        <v>4.9</v>
+        <v>4.05</v>
       </c>
       <c r="N43" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="O43" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="P43" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="R43" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="U43" t="n">
         <v>1.2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="W43" t="n">
         <v>3</v>
       </c>
       <c r="X43" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AA43" t="n">
-        <v>3.48</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="44">
@@ -4415,22 +4415,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="J44" t="n">
         <v>1.07</v>
@@ -4442,49 +4442,49 @@
         <v>1.36</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N44" t="n">
         <v>2.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P44" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q44" t="n">
         <v>2.55</v>
       </c>
       <c r="R44" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S44" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T44" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="U44" t="n">
         <v>1.28</v>
       </c>
       <c r="V44" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="W44" t="n">
         <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="45">
@@ -4515,13 +4515,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -4536,10 +4536,10 @@
         <v>3.72</v>
       </c>
       <c r="N45" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="O45" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="P45" t="n">
         <v>1.32</v>
@@ -4597,22 +4597,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
@@ -4630,7 +4630,7 @@
         <v>2.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="P46" t="n">
         <v>1.46</v>
@@ -4645,28 +4645,28 @@
         <v>1.87</v>
       </c>
       <c r="T46" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U46" t="n">
         <v>1.28</v>
       </c>
       <c r="V46" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="W46" t="n">
         <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
       <c r="AA46" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="47">
@@ -4688,22 +4688,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="J47" t="n">
         <v>1.07</v>
@@ -4715,34 +4715,34 @@
         <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P47" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q47" t="n">
         <v>2.55</v>
       </c>
       <c r="R47" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T47" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="U47" t="n">
         <v>1.28</v>
       </c>
       <c r="V47" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="W47" t="n">
         <v>2</v>
@@ -4751,13 +4751,13 @@
         <v>1.67</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.99</v>
+        <v>1.17</v>
       </c>
       <c r="AA47" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="48">
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H48" t="n">
         <v>3.6</v>
@@ -4809,10 +4809,10 @@
         <v>3.2</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O48" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P48" t="n">
         <v>1.4</v>
@@ -4854,7 +4854,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -4866,86 +4866,86 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Aberystwyth Town</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H49" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L49" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="M49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P49" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T49" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="U49" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="V49" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="W49" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="X49" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.1</v>
+        <v>1.98</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.9</v>
+        <v>1.32</v>
       </c>
       <c r="AA49" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -4957,86 +4957,86 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>Aberystwyth Town</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.25</v>
+        <v>1.32</v>
       </c>
       <c r="H50" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K50" t="n">
+        <v>11</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q50" t="n">
         <v>3.5</v>
       </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K50" t="n">
-        <v>15</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3.2</v>
-      </c>
       <c r="R50" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="T50" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="U50" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="V50" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="W50" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="X50" t="n">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.84</v>
+        <v>1.1</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.83</v>
+        <v>0.9</v>
       </c>
       <c r="AA50" t="n">
-        <v>3.67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -5048,80 +5048,80 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inter Milan</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.39</v>
+        <v>2.14</v>
       </c>
       <c r="H51" t="n">
-        <v>5.4</v>
+        <v>3.27</v>
       </c>
       <c r="I51" t="n">
-        <v>6.9</v>
+        <v>2.79</v>
       </c>
       <c r="J51" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K51" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L51" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="M51" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T51" t="n">
         <v>1.4</v>
       </c>
-      <c r="O51" t="n">
-        <v>3</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U51" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="V51" t="n">
-        <v>3.3</v>
+        <v>1.63</v>
       </c>
       <c r="W51" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="Y51" t="n">
         <v>1.84</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AA51" t="n">
-        <v>3.04</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="52">
@@ -5143,76 +5143,76 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Inter Milan</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.82</v>
+        <v>1.33</v>
       </c>
       <c r="H52" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="I52" t="n">
-        <v>4.45</v>
+        <v>7.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K52" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="L52" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="M52" t="n">
-        <v>3.15</v>
+        <v>6.5</v>
       </c>
       <c r="N52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S52" t="n">
         <v>2.1</v>
       </c>
-      <c r="O52" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T52" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="U52" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="V52" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="W52" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X52" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.47</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="53">
@@ -5234,76 +5234,76 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>4.95</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>8.300000000000001</v>
+        <v>4.33</v>
       </c>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K53" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L53" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="M53" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="N53" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O53" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="P53" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S53" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T53" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="U53" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="V53" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X53" t="n">
         <v>1.5</v>
       </c>
-      <c r="X53" t="n">
-        <v>1</v>
-      </c>
       <c r="Y53" t="n">
-        <v>1.98</v>
+        <v>1.39</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="AA53" t="n">
-        <v>3.3</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="54">
@@ -5382,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="W54" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -5425,13 +5425,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
@@ -5446,7 +5446,7 @@
         <v>2.8</v>
       </c>
       <c r="N55" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O55" t="n">
         <v>1.62</v>
@@ -5516,13 +5516,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J56" t="n">
         <v>1.09</v>
@@ -5537,7 +5537,7 @@
         <v>2.79</v>
       </c>
       <c r="N56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O56" t="n">
         <v>1.6</v>
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H57" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="J57" t="n">
         <v>1.04</v>
@@ -5631,7 +5631,7 @@
         <v>1.9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="P57" t="n">
         <v>1.4</v>
@@ -5698,13 +5698,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         <v>1.83</v>
       </c>
       <c r="O58" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5789,13 +5789,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="H59" t="n">
-        <v>4.66</v>
+        <v>4.1</v>
       </c>
       <c r="I59" t="n">
-        <v>7.15</v>
+        <v>4.5</v>
       </c>
       <c r="J59" t="n">
         <v>1.03</v>
@@ -5810,10 +5810,10 @@
         <v>3.75</v>
       </c>
       <c r="N59" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="O59" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="P59" t="n">
         <v>1.36</v>
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I60" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="J60" t="n">
         <v>1.04</v>
@@ -5901,10 +5901,10 @@
         <v>3.6</v>
       </c>
       <c r="N60" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O60" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P60" t="n">
         <v>1.37</v>
